--- a/30 設計/20 プログラム設計/10 機能設計/画面一覧.xlsx
+++ b/30 設計/20 プログラム設計/10 機能設計/画面一覧.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
   <si>
     <t>システム名称</t>
     <phoneticPr fontId="5"/>
@@ -312,6 +312,17 @@
   </si>
   <si>
     <t>regist_user.ctp</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>カレンダー編集</t>
+    <rPh sb="5" eb="7">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>display_calendar.ctp</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -3886,6 +3897,115 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>23699</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3324224" y="5743575"/>
+          <a:ext cx="900000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="bevel">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 5824"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFCC" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="26"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>カレンダー編集</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>49949</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>146013</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="AutoShape 4"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="56" idx="5"/>
+          <a:endCxn id="19" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="10800000">
+          <a:off x="2450249" y="1181101"/>
+          <a:ext cx="896164" cy="4752975"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd type="triangle" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -10100,7 +10220,7 @@
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5:B5"/>
-      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5"/>
@@ -11181,15 +11301,21 @@
       <c r="AZ18" s="77"/>
     </row>
     <row r="19" spans="1:52">
-      <c r="A19" s="38"/>
-      <c r="B19" s="78"/>
+      <c r="A19" s="38">
+        <v>14</v>
+      </c>
+      <c r="B19" s="78" t="s">
+        <v>51</v>
+      </c>
       <c r="C19" s="76"/>
       <c r="D19" s="76"/>
       <c r="E19" s="76"/>
       <c r="F19" s="76"/>
       <c r="G19" s="76"/>
       <c r="H19" s="77"/>
-      <c r="I19" s="75"/>
+      <c r="I19" s="75" t="s">
+        <v>52</v>
+      </c>
       <c r="J19" s="75"/>
       <c r="K19" s="75"/>
       <c r="L19" s="75"/>
